--- a/Добавить товары/Добавляю от 14.05/Остатки Schaub Lorenz 13.05.xlsx
+++ b/Добавить товары/Добавляю от 14.05/Остатки Schaub Lorenz 13.05.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Shaubl\SchaubLorenz\Добавить товары\Добавляю от 14.05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Проект Shaubl\SchaubLorenz\Добавить товары\Добавляю от 14.05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0588C53-A4C8-4B00-8A44-85E5EE855130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2025" windowWidth="23760" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2025" windowWidth="23760" windowHeight="14175"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="105" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$J$219</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="383">
   <si>
     <t>SLB00001571</t>
   </si>
@@ -1179,17 +1178,23 @@
   </si>
   <si>
     <t>да</t>
+  </si>
+  <si>
+    <t>не нашел нормальной фотки</t>
+  </si>
+  <si>
+    <t>про этот непонятно</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="0.000_ ;[Red]\-0.000\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,6 +1266,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1316,7 +1329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1360,10 +1373,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7320,18 +7339,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J219"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="20" customWidth="1"/>
@@ -7407,71 +7426,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>18001530</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="25">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>52990</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>41332.200000000004</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="16">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
-        <v>380</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="I3" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>18001522</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="25">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>44990</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>35092.200000000004</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="16">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
-        <v>380</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J4" s="8">
         <v>1</v>
       </c>
     </row>
@@ -8217,37 +8236,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>18001296</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="25">
         <v>5</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="20">
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8492</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="16">
         <v>5</v>
       </c>
-      <c r="I27" t="s">
-        <v>380</v>
-      </c>
-      <c r="J27">
+      <c r="I27" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J27" s="8">
         <v>1</v>
       </c>
     </row>
@@ -8897,37 +8916,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D47" s="24">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="25">
+        <v>0</v>
+      </c>
+      <c r="E47" s="8">
         <v>4</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13990</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>9793</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="16">
         <v>4</v>
       </c>
-      <c r="I47" t="s">
-        <v>380</v>
-      </c>
-      <c r="J47">
+      <c r="I47" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" s="8">
         <v>1</v>
       </c>
     </row>
@@ -9033,68 +9052,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D51" s="24">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" s="20">
+      <c r="D51" s="25">
+        <v>0</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>11990</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8393</v>
       </c>
-      <c r="H51" s="14">
-        <v>0</v>
-      </c>
-      <c r="J51">
+      <c r="H51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="D52" s="24">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="20">
+      <c r="D52" s="28">
+        <v>0</v>
+      </c>
+      <c r="E52" s="26">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>15990</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11193</v>
       </c>
-      <c r="H52" s="14">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
-        <v>380</v>
-      </c>
-      <c r="J52">
+      <c r="H52" s="30">
+        <v>1</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" s="26">
         <v>1</v>
       </c>
     </row>
@@ -10570,34 +10589,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
         <v>18001465</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="24">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97" s="20">
+      <c r="D97" s="25">
+        <v>0</v>
+      </c>
+      <c r="E97" s="8">
+        <v>0</v>
+      </c>
+      <c r="F97" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>29990</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>23465.122850890908</v>
       </c>
-      <c r="H97" s="14">
-        <v>0</v>
-      </c>
-      <c r="J97">
+      <c r="H97" s="16">
+        <v>0</v>
+      </c>
+      <c r="J97" s="8">
         <v>14</v>
       </c>
     </row>
@@ -10737,37 +10756,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
         <v>18001238</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D102" s="23">
-        <v>10</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102" s="20">
+      <c r="D102" s="10">
+        <v>10</v>
+      </c>
+      <c r="E102" s="8">
+        <v>0</v>
+      </c>
+      <c r="F102" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>20990</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>17841.5</v>
       </c>
-      <c r="H102" s="14">
-        <v>10</v>
-      </c>
-      <c r="I102" t="s">
-        <v>380</v>
-      </c>
-      <c r="J102">
+      <c r="H102" s="16">
+        <v>10</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J102" s="8">
         <v>1</v>
       </c>
     </row>
@@ -11683,37 +11702,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="130" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
         <v>18001313</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D130" s="23">
-        <v>10</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130" s="20">
+      <c r="D130" s="10">
+        <v>10</v>
+      </c>
+      <c r="E130" s="8">
+        <v>0</v>
+      </c>
+      <c r="F130" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>8590</v>
       </c>
-      <c r="G130" s="18">
+      <c r="G130" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7302</v>
       </c>
-      <c r="H130" s="14">
-        <v>10</v>
-      </c>
-      <c r="I130" t="s">
-        <v>380</v>
-      </c>
-      <c r="J130">
+      <c r="H130" s="16">
+        <v>10</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J130" s="8">
         <v>1</v>
       </c>
     </row>
@@ -12023,37 +12042,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+    <row r="140" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
         <v>18001301</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D140" s="23">
-        <v>10</v>
-      </c>
-      <c r="E140">
-        <v>0</v>
-      </c>
-      <c r="F140" s="20">
+      <c r="D140" s="10">
+        <v>10</v>
+      </c>
+      <c r="E140" s="8">
+        <v>0</v>
+      </c>
+      <c r="F140" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>7490</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6367</v>
       </c>
-      <c r="H140" s="14">
-        <v>10</v>
-      </c>
-      <c r="I140" t="s">
-        <v>380</v>
-      </c>
-      <c r="J140">
+      <c r="H140" s="16">
+        <v>10</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J140" s="8">
         <v>1</v>
       </c>
     </row>
@@ -12193,7 +12212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>212</v>
       </c>
@@ -12227,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>175</v>
       </c>
@@ -12261,7 +12280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>100</v>
       </c>
@@ -12295,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>102</v>
       </c>
@@ -12326,7 +12345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>177</v>
       </c>
@@ -12360,7 +12379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>104</v>
       </c>
@@ -12394,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -12428,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>201</v>
       </c>
@@ -12462,7 +12481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>245</v>
       </c>
@@ -12496,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>108</v>
       </c>
@@ -12530,7 +12549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -12564,7 +12583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>18001284</v>
       </c>
@@ -12598,41 +12617,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+    <row r="157" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
         <v>18001487</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D157" s="23">
-        <v>10</v>
-      </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
-      <c r="F157" s="20" t="str">
+      <c r="D157" s="10">
+        <v>10</v>
+      </c>
+      <c r="E157" s="8">
+        <v>0</v>
+      </c>
+      <c r="F157" s="13" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>23 862,30</v>
       </c>
-      <c r="G157" s="18" t="str">
+      <c r="G157" s="8" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30 990,00</v>
       </c>
-      <c r="H157" s="14">
-        <v>10</v>
-      </c>
-      <c r="I157" t="s">
-        <v>380</v>
-      </c>
-      <c r="J157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H157" s="16">
+        <v>10</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J157" s="8">
+        <v>1</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>110</v>
       </c>
@@ -12666,7 +12688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>181</v>
       </c>
@@ -12697,7 +12719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>214</v>
       </c>
@@ -12731,7 +12753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>298</v>
       </c>
@@ -12765,7 +12787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -12799,7 +12821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>18001262</v>
       </c>
@@ -12833,7 +12855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>18001274</v>
       </c>
@@ -12867,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>18001275</v>
       </c>
@@ -12901,41 +12923,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="166" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
         <v>18001413</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D166" s="23">
-        <v>10</v>
-      </c>
-      <c r="E166">
-        <v>0</v>
-      </c>
-      <c r="F166" s="20">
+      <c r="D166" s="10">
+        <v>10</v>
+      </c>
+      <c r="E166" s="8">
+        <v>0</v>
+      </c>
+      <c r="F166" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13490</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10117.5</v>
       </c>
-      <c r="H166" s="14">
-        <v>10</v>
-      </c>
-      <c r="I166" t="s">
-        <v>380</v>
-      </c>
-      <c r="J166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H166" s="16">
+        <v>10</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J166" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>18001414</v>
       </c>
@@ -12969,7 +12991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>18001415</v>
       </c>
@@ -13003,7 +13025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>18001464</v>
       </c>
@@ -13037,7 +13059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>18001270</v>
       </c>
@@ -13071,7 +13093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>18000000</v>
       </c>
@@ -13101,8 +13123,11 @@
       <c r="J171">
         <v>14</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>235</v>
       </c>
@@ -13136,7 +13161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>237</v>
       </c>
@@ -13170,7 +13195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>239</v>
       </c>
@@ -13204,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>241</v>
       </c>
@@ -13238,7 +13263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>18001438</v>
       </c>
@@ -14014,105 +14039,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="199" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
         <v>18001562</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D199" s="23">
-        <v>10</v>
-      </c>
-      <c r="E199">
-        <v>0</v>
-      </c>
-      <c r="F199" s="20" t="str">
+      <c r="D199" s="10">
+        <v>10</v>
+      </c>
+      <c r="E199" s="8">
+        <v>0</v>
+      </c>
+      <c r="F199" s="13" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>24 792,00</v>
       </c>
-      <c r="G199" s="18" t="str">
+      <c r="G199" s="8" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30 990,00</v>
       </c>
-      <c r="H199" s="14">
-        <v>10</v>
-      </c>
-      <c r="I199" t="s">
-        <v>380</v>
-      </c>
-      <c r="J199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+      <c r="H199" s="16">
+        <v>10</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J199" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
         <v>18001563</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D200" s="23">
-        <v>10</v>
-      </c>
-      <c r="E200">
-        <v>0</v>
-      </c>
-      <c r="F200" s="20" t="str">
+      <c r="D200" s="10">
+        <v>10</v>
+      </c>
+      <c r="E200" s="8">
+        <v>0</v>
+      </c>
+      <c r="F200" s="13" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>24 792,00</v>
       </c>
-      <c r="G200" s="18" t="str">
+      <c r="G200" s="8" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30 990,00</v>
       </c>
-      <c r="H200" s="14">
-        <v>10</v>
-      </c>
-      <c r="I200" t="s">
-        <v>380</v>
-      </c>
-      <c r="J200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="H200" s="16">
+        <v>10</v>
+      </c>
+      <c r="I200" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J200" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
         <v>18001564</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="D201" s="23">
-        <v>10</v>
-      </c>
-      <c r="E201">
-        <v>0</v>
-      </c>
-      <c r="F201" s="20" t="str">
+      <c r="D201" s="10">
+        <v>10</v>
+      </c>
+      <c r="E201" s="8">
+        <v>0</v>
+      </c>
+      <c r="F201" s="13" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>24 792,00</v>
       </c>
-      <c r="G201" s="18" t="str">
+      <c r="G201" s="8" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30 990,00</v>
       </c>
-      <c r="H201" s="14">
-        <v>10</v>
-      </c>
-      <c r="I201" t="s">
-        <v>380</v>
-      </c>
-      <c r="J201">
+      <c r="H201" s="16">
+        <v>10</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J201" s="8">
         <v>1</v>
       </c>
     </row>
@@ -14626,71 +14651,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="217" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="7">
         <v>18001235</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C217" s="6" t="s">
+      <c r="C217" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D217" s="23">
-        <v>10</v>
-      </c>
-      <c r="E217">
-        <v>0</v>
-      </c>
-      <c r="F217" s="20">
+      <c r="D217" s="10">
+        <v>10</v>
+      </c>
+      <c r="E217" s="8">
+        <v>0</v>
+      </c>
+      <c r="F217" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>49990</v>
       </c>
-      <c r="G217" s="18">
+      <c r="G217" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>38992.200000000004</v>
       </c>
-      <c r="H217" s="14">
-        <v>10</v>
-      </c>
-      <c r="I217" t="s">
-        <v>380</v>
-      </c>
-      <c r="J217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+      <c r="H217" s="16">
+        <v>10</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J217" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="7">
         <v>18001236</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C218" s="6" t="s">
+      <c r="C218" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D218" s="23">
-        <v>10</v>
-      </c>
-      <c r="E218">
+      <c r="D218" s="10">
+        <v>10</v>
+      </c>
+      <c r="E218" s="8">
         <v>6</v>
       </c>
-      <c r="F218" s="20">
+      <c r="F218" s="13">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>57990</v>
       </c>
-      <c r="G218" s="18">
+      <c r="G218" s="8">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>45232.200000000004</v>
       </c>
-      <c r="H218" s="14">
+      <c r="H218" s="16">
         <v>16</v>
       </c>
-      <c r="I218" t="s">
-        <v>380</v>
-      </c>
-      <c r="J218">
+      <c r="I218" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="J218" s="8">
         <v>1</v>
       </c>
     </row>
@@ -14729,7 +14754,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J219" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J219"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Добавить товары/Добавляю от 14.05/Остатки Schaub Lorenz 13.05.xlsx
+++ b/Добавить товары/Добавляю от 14.05/Остатки Schaub Lorenz 13.05.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Проект Shaubl\SchaubLorenz\Добавить товары\Добавляю от 14.05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Shaubl\SchaubLorenz\Добавить товары\Добавляю от 14.05\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66D524-97A1-4CB9-966F-A52A5EF7E1DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2025" windowWidth="23760" windowHeight="14175"/>
+    <workbookView xWindow="315" yWindow="1995" windowWidth="23760" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="105" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$J$219</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1189,12 +1190,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="0.000_ ;[Red]\-0.000\ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1274,8 +1275,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,6 +1305,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,7 +1343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1354,9 +1368,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1378,11 +1389,17 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7339,28 +7356,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="18"/>
-    <col min="8" max="8" width="17.42578125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="0.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="0.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="0.42578125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -7370,19 +7387,19 @@
       <c r="C1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="19" t="s">
         <v>138</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="27" t="s">
         <v>377</v>
       </c>
       <c r="I1" t="s">
@@ -7402,21 +7419,21 @@
       <c r="C2" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>2190</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>1533</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="27">
         <v>10</v>
       </c>
       <c r="I2" t="s">
@@ -7436,7 +7453,7 @@
       <c r="C3" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>6</v>
       </c>
       <c r="E3" s="8">
@@ -7450,7 +7467,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>41332.200000000004</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="28">
         <v>6</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -7470,7 +7487,7 @@
       <c r="C4" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>3</v>
       </c>
       <c r="E4" s="8">
@@ -7484,7 +7501,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>35092.200000000004</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="28">
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -7504,21 +7521,21 @@
       <c r="C5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="21">
         <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>32990</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>24742.5</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="27">
         <v>0</v>
       </c>
       <c r="J5">
@@ -7535,21 +7552,21 @@
       <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>28990</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>22322.3</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="27">
         <v>10</v>
       </c>
       <c r="I6" t="s">
@@ -7569,21 +7586,21 @@
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>10</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>24490</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19592</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="27">
         <v>18</v>
       </c>
       <c r="I7" t="s">
@@ -7603,21 +7620,21 @@
       <c r="C8" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>24490</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19592</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="27">
         <v>1</v>
       </c>
       <c r="I8" t="s">
@@ -7637,21 +7654,21 @@
       <c r="C9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="20">
         <v>10</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>28990</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>22322.3</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="29">
         <v>13</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -7671,21 +7688,21 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="20">
         <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>20990</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>16162.300000000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="27">
         <v>10</v>
       </c>
       <c r="I10" t="s">
@@ -7705,21 +7722,21 @@
       <c r="C11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="20">
         <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>22990</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>17702.3</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="27">
         <v>11</v>
       </c>
       <c r="I11" t="s">
@@ -7739,21 +7756,21 @@
       <c r="C12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="20">
         <v>10</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>25990</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>20012.3</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="27">
         <v>11</v>
       </c>
       <c r="I12" t="s">
@@ -7773,21 +7790,21 @@
       <c r="C13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="20">
         <v>10</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>27990</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>21552.3</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="27">
         <v>11</v>
       </c>
       <c r="I13" t="s">
@@ -7807,21 +7824,21 @@
       <c r="C14" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="20">
         <v>10</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>10490</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8917</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="28">
         <v>10</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -7855,7 +7872,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10192</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="28">
         <v>10</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -7875,21 +7892,21 @@
       <c r="C16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <v>10</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17490</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13992</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="27">
         <v>15</v>
       </c>
       <c r="I16" t="s">
@@ -7909,21 +7926,21 @@
       <c r="C17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>10</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>19990</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>15992</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="27">
         <v>13</v>
       </c>
       <c r="I17" t="s">
@@ -7943,21 +7960,21 @@
       <c r="C18" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="20">
         <v>10</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>23990</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>18472.3</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="27">
         <v>14</v>
       </c>
       <c r="I18" t="s">
@@ -7977,21 +7994,21 @@
       <c r="C19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="21">
         <v>0</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>26990</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>20782.3</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="27">
         <v>2</v>
       </c>
       <c r="I19" t="s">
@@ -8011,21 +8028,21 @@
       <c r="C20" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>6</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>26490</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>20662.2</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="27">
         <v>7</v>
       </c>
       <c r="I20" t="s">
@@ -8045,21 +8062,21 @@
       <c r="C21" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>30990</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>23862.3</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="27">
         <v>10</v>
       </c>
       <c r="I21" t="s">
@@ -8079,21 +8096,21 @@
       <c r="C22" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="20">
         <v>10</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>26490</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>20662.2</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="27">
         <v>14</v>
       </c>
       <c r="I22" t="s">
@@ -8113,21 +8130,21 @@
       <c r="C23" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="20">
         <v>10</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>29490</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>23002.2</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="27">
         <v>12</v>
       </c>
       <c r="I23" t="s">
@@ -8147,21 +8164,21 @@
       <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="20">
         <v>10</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>19990</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>15392.300000000001</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="27">
         <v>13</v>
       </c>
       <c r="I24" t="s">
@@ -8181,21 +8198,21 @@
       <c r="C25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="20">
         <v>10</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>21990</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>16932.3</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="27">
         <v>13</v>
       </c>
       <c r="I25" t="s">
@@ -8215,21 +8232,21 @@
       <c r="C26" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="21">
         <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>24990</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19242.3</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="27">
         <v>0</v>
       </c>
       <c r="J26">
@@ -8246,7 +8263,7 @@
       <c r="C27" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>5</v>
       </c>
       <c r="E27" s="8">
@@ -8260,7 +8277,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8492</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="28">
         <v>5</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -8280,21 +8297,21 @@
       <c r="C28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="21">
         <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>16990</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13592</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="27">
         <v>1</v>
       </c>
       <c r="I28" t="s">
@@ -8314,21 +8331,21 @@
       <c r="C29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="20">
         <v>10</v>
       </c>
       <c r="E29">
         <v>6</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>18990</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>15192</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="27">
         <v>16</v>
       </c>
       <c r="I29" t="s">
@@ -8348,21 +8365,21 @@
       <c r="C30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="20">
         <v>10</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>32990</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>24742.5</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="27">
         <v>11</v>
       </c>
       <c r="I30" t="s">
@@ -8382,21 +8399,21 @@
       <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="20">
         <v>10</v>
       </c>
       <c r="E31" s="4">
         <v>10</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>29990</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>23092.3</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="27">
         <v>20</v>
       </c>
       <c r="I31" t="s">
@@ -8416,21 +8433,21 @@
       <c r="C32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="20">
         <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>22990</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>17702.3</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="27">
         <v>10</v>
       </c>
       <c r="I32" t="s">
@@ -8450,21 +8467,21 @@
       <c r="C33" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="20">
         <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>25990</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>20012.3</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="27">
         <v>10</v>
       </c>
       <c r="I33" t="s">
@@ -8484,21 +8501,21 @@
       <c r="C34" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="20">
         <v>10</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17990</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>14392</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="27">
         <v>12</v>
       </c>
       <c r="I34" t="s">
@@ -8518,21 +8535,21 @@
       <c r="C35" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="21">
         <v>0</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17990</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>14392</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="27">
         <v>1</v>
       </c>
       <c r="I35" t="s">
@@ -8552,21 +8569,21 @@
       <c r="C36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="20">
         <v>10</v>
       </c>
       <c r="E36">
         <v>4</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>19990</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>15992</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="27">
         <v>14</v>
       </c>
       <c r="I36" t="s">
@@ -8586,21 +8603,21 @@
       <c r="C37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="21">
         <v>3</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>27990</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>21552.3</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="27">
         <v>4</v>
       </c>
       <c r="I37" t="s">
@@ -8620,21 +8637,21 @@
       <c r="C38" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="20">
         <v>10</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>28990</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>22322.3</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="27">
         <v>10</v>
       </c>
       <c r="I38" t="s">
@@ -8654,21 +8671,21 @@
       <c r="C39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="21">
         <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>25490</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19882.2</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="27">
         <v>6</v>
       </c>
       <c r="I39" t="s">
@@ -8688,21 +8705,21 @@
       <c r="C40" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="20">
         <v>10</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>28490</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>22222.2</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="27">
         <v>10</v>
       </c>
       <c r="I40" t="s">
@@ -8722,21 +8739,21 @@
       <c r="C41" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="20">
         <v>10</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>26990</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>20782.3</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="27">
         <v>10</v>
       </c>
       <c r="I41" t="s">
@@ -8756,21 +8773,21 @@
       <c r="C42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="20">
         <v>10</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>24490</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19592</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="27">
         <v>10</v>
       </c>
       <c r="I42" t="s">
@@ -8790,21 +8807,21 @@
       <c r="C43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D43" s="20">
         <v>10</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>28990</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>22322.3</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="27">
         <v>11</v>
       </c>
       <c r="I43" t="s">
@@ -8824,21 +8841,21 @@
       <c r="C44" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D44" s="23">
+      <c r="D44" s="20">
         <v>10</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="27">
         <v>11</v>
       </c>
       <c r="I44" t="s">
@@ -8858,21 +8875,21 @@
       <c r="C45" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="21">
         <v>0</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7492.5</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="27">
         <v>4</v>
       </c>
       <c r="I45" t="s">
@@ -8892,21 +8909,21 @@
       <c r="C46" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="21">
         <v>0</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="27">
         <v>1</v>
       </c>
       <c r="I46" t="s">
@@ -8926,7 +8943,7 @@
       <c r="C47" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="22">
         <v>0</v>
       </c>
       <c r="E47" s="8">
@@ -8940,7 +8957,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>9793</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="28">
         <v>4</v>
       </c>
       <c r="I47" s="8" t="s">
@@ -8960,21 +8977,21 @@
       <c r="C48" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="21">
         <v>0</v>
       </c>
       <c r="E48">
         <v>3</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>12590</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>9442.5</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="27">
         <v>3</v>
       </c>
       <c r="I48" t="s">
@@ -8994,21 +9011,21 @@
       <c r="C49" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="20">
         <v>10</v>
       </c>
       <c r="E49">
         <v>4</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13990</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G49" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10492.5</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="27">
         <v>14</v>
       </c>
       <c r="I49" t="s">
@@ -9028,21 +9045,21 @@
       <c r="C50" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D50" s="24">
+      <c r="D50" s="21">
         <v>0</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>15990</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11992.5</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="27">
         <v>1</v>
       </c>
       <c r="I50" t="s">
@@ -9062,7 +9079,7 @@
       <c r="C51" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="22">
         <v>0</v>
       </c>
       <c r="E51" s="8">
@@ -9076,44 +9093,44 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8393</v>
       </c>
-      <c r="H51" s="16">
+      <c r="H51" s="28">
         <v>0</v>
       </c>
       <c r="J51" s="8">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+    <row r="52" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="24" t="s">
         <v>317</v>
       </c>
-      <c r="D52" s="28">
-        <v>0</v>
-      </c>
-      <c r="E52" s="26">
-        <v>1</v>
-      </c>
-      <c r="F52" s="29">
+      <c r="D52" s="25">
+        <v>0</v>
+      </c>
+      <c r="E52" s="23">
+        <v>1</v>
+      </c>
+      <c r="F52" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>15990</v>
       </c>
-      <c r="G52" s="26">
+      <c r="G52" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11193</v>
       </c>
       <c r="H52" s="30">
         <v>1</v>
       </c>
-      <c r="I52" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="J52" s="26">
+      <c r="I52" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J52" s="23">
         <v>1</v>
       </c>
     </row>
@@ -9127,21 +9144,21 @@
       <c r="C53" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="21">
         <v>1</v>
       </c>
       <c r="E53">
         <v>3</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>14990</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11242.5</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="27">
         <v>4</v>
       </c>
       <c r="I53" t="s">
@@ -9161,21 +9178,21 @@
       <c r="C54" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="21">
         <v>0</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>10990</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8792</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="27">
         <v>2</v>
       </c>
       <c r="I54" t="s">
@@ -9195,21 +9212,21 @@
       <c r="C55" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="21">
         <v>0</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>12990</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G55" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10392</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="27">
         <v>6</v>
       </c>
       <c r="I55" t="s">
@@ -9229,21 +9246,21 @@
       <c r="C56" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="20">
         <v>10</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="27">
         <v>10</v>
       </c>
       <c r="I56" t="s">
@@ -9263,21 +9280,21 @@
       <c r="C57" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="21">
         <v>0</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7492.5</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="27">
         <v>1</v>
       </c>
       <c r="I57" t="s">
@@ -9287,71 +9304,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="D58" s="24">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="25">
+        <v>0</v>
+      </c>
+      <c r="E58" s="23">
         <v>3</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>10890</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7623</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="30">
         <v>3</v>
       </c>
-      <c r="I58" t="s">
-        <v>380</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="I58" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J58" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="D59" s="24">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="20">
+      <c r="D59" s="25">
+        <v>0</v>
+      </c>
+      <c r="E59" s="23">
+        <v>1</v>
+      </c>
+      <c r="F59" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>11390</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8543</v>
       </c>
-      <c r="H59" s="14">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>380</v>
-      </c>
-      <c r="J59">
+      <c r="H59" s="30">
+        <v>1</v>
+      </c>
+      <c r="I59" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J59" s="23">
         <v>1</v>
       </c>
     </row>
@@ -9365,21 +9382,21 @@
       <c r="C60" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="20">
         <v>10</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60" s="20">
+      <c r="F60" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="27">
         <v>11</v>
       </c>
       <c r="I60" t="s">
@@ -9399,21 +9416,21 @@
       <c r="C61" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D61" s="21">
         <v>0</v>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="27">
         <v>6</v>
       </c>
       <c r="I61" t="s">
@@ -9433,21 +9450,21 @@
       <c r="C62" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="20">
         <v>10</v>
       </c>
       <c r="E62">
         <v>4</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13490</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10117.5</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="27">
         <v>14</v>
       </c>
       <c r="I62" t="s">
@@ -9467,21 +9484,21 @@
       <c r="C63" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="21">
         <v>0</v>
       </c>
       <c r="E63">
         <v>3</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>14990</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11242.5</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="27">
         <v>3</v>
       </c>
       <c r="I63" t="s">
@@ -9491,102 +9508,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="D64" s="24">
-        <v>0</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="25">
+        <v>0</v>
+      </c>
+      <c r="E64" s="23">
         <v>3</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7493</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="30">
         <v>3</v>
       </c>
-      <c r="I64" t="s">
-        <v>380</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="I64" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J64" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D65" s="24">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65" s="20">
+      <c r="D65" s="25">
+        <v>0</v>
+      </c>
+      <c r="E65" s="23">
+        <v>0</v>
+      </c>
+      <c r="F65" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>11590</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8113</v>
       </c>
-      <c r="H65" s="14">
-        <v>0</v>
-      </c>
-      <c r="J65">
+      <c r="H65" s="30">
+        <v>0</v>
+      </c>
+      <c r="J65" s="23">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="D66" s="24">
-        <v>0</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="25">
+        <v>0</v>
+      </c>
+      <c r="E66" s="23">
         <v>7</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F66" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>15990</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11193</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="30">
         <v>7</v>
       </c>
-      <c r="I66" t="s">
-        <v>380</v>
-      </c>
-      <c r="J66">
+      <c r="I66" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J66" s="23">
         <v>1</v>
       </c>
     </row>
@@ -9600,21 +9617,21 @@
       <c r="C67" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="21">
         <v>0</v>
       </c>
       <c r="E67">
         <v>3</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13990</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10492.5</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="27">
         <v>3</v>
       </c>
       <c r="I67" t="s">
@@ -9624,71 +9641,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="D68" s="24">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68" s="20">
+      <c r="D68" s="25">
+        <v>0</v>
+      </c>
+      <c r="E68" s="23">
+        <v>1</v>
+      </c>
+      <c r="F68" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>12490</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8743</v>
       </c>
-      <c r="H68" s="14">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>380</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="H68" s="30">
+        <v>1</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J68" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
         <v>344</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="D69" s="24">
-        <v>0</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="25">
+        <v>0</v>
+      </c>
+      <c r="E69" s="23">
         <v>4</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>10990</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8792</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="30">
         <v>4</v>
       </c>
-      <c r="I69" t="s">
-        <v>380</v>
-      </c>
-      <c r="J69">
+      <c r="I69" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J69" s="23">
         <v>1</v>
       </c>
     </row>
@@ -9702,21 +9719,21 @@
       <c r="C70" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="21">
         <v>0</v>
       </c>
       <c r="E70">
         <v>6</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>12990</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10392</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="27">
         <v>6</v>
       </c>
       <c r="I70" t="s">
@@ -9726,37 +9743,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="D71" s="23">
-        <v>10</v>
-      </c>
-      <c r="E71" s="4">
-        <v>10</v>
-      </c>
-      <c r="F71" s="20">
+      <c r="D71" s="31">
+        <v>10</v>
+      </c>
+      <c r="E71" s="31">
+        <v>10</v>
+      </c>
+      <c r="F71" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>5990</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4800</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="30">
         <v>20</v>
       </c>
-      <c r="I71" t="s">
-        <v>380</v>
-      </c>
-      <c r="J71">
+      <c r="I71" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J71" s="23">
         <v>1</v>
       </c>
     </row>
@@ -9770,21 +9787,21 @@
       <c r="C72" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="21">
         <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F72" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>2990</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>2392</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="27">
         <v>0</v>
       </c>
       <c r="J72">
@@ -9801,21 +9818,21 @@
       <c r="C73" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="21">
         <v>0</v>
       </c>
       <c r="E73">
         <v>6</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4990</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>3743</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="27">
         <v>6</v>
       </c>
       <c r="I73" t="s">
@@ -9835,21 +9852,21 @@
       <c r="C74" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="21">
         <v>0</v>
       </c>
       <c r="E74">
         <v>2</v>
       </c>
-      <c r="F74" s="20">
+      <c r="F74" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4990</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>3743</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="27">
         <v>2</v>
       </c>
       <c r="I74" t="s">
@@ -9869,21 +9886,21 @@
       <c r="C75" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="D75" s="24">
+      <c r="D75" s="21">
         <v>0</v>
       </c>
       <c r="E75">
         <v>6</v>
       </c>
-      <c r="F75" s="20">
+      <c r="F75" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4990</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>3743</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="27">
         <v>6</v>
       </c>
       <c r="I75" t="s">
@@ -9903,21 +9920,21 @@
       <c r="C76" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D76" s="24">
+      <c r="D76" s="21">
         <v>0</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76" s="20">
+      <c r="F76" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>7990</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6392</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="27">
         <v>1</v>
       </c>
       <c r="I76" t="s">
@@ -9937,21 +9954,21 @@
       <c r="C77" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="21">
         <v>8</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
-      <c r="F77" s="20">
+      <c r="F77" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>7990</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6392</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="27">
         <v>12</v>
       </c>
       <c r="I77" t="s">
@@ -9971,21 +9988,21 @@
       <c r="C78" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="21">
         <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
-      <c r="F78" s="20">
+      <c r="F78" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>7990</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6392</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="27">
         <v>0</v>
       </c>
       <c r="J78">
@@ -10002,21 +10019,21 @@
       <c r="C79" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D79" s="24">
+      <c r="D79" s="21">
         <v>0</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
-      <c r="F79" s="20">
+      <c r="F79" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>8990</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6742.5</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="27">
         <v>1</v>
       </c>
       <c r="I79" t="s">
@@ -10036,21 +10053,21 @@
       <c r="C80" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D80" s="24">
+      <c r="D80" s="21">
         <v>0</v>
       </c>
       <c r="E80">
         <v>3</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F80" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>8490</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6367.5</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="27">
         <v>3</v>
       </c>
       <c r="I80" t="s">
@@ -10070,21 +10087,21 @@
       <c r="C81" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="21">
         <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81" s="20">
+      <c r="F81" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>5990</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4493</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H81" s="27">
         <v>1</v>
       </c>
       <c r="I81" t="s">
@@ -10104,21 +10121,21 @@
       <c r="C82" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D82" s="23">
+      <c r="D82" s="20">
         <v>10</v>
       </c>
       <c r="E82">
         <v>3</v>
       </c>
-      <c r="F82" s="20">
+      <c r="F82" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>5690</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4552</v>
       </c>
-      <c r="H82" s="14">
+      <c r="H82" s="27">
         <v>13</v>
       </c>
       <c r="I82" t="s">
@@ -10138,21 +10155,21 @@
       <c r="C83" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D83" s="23">
+      <c r="D83" s="20">
         <v>10</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F83" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>5690</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G83" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4552</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="27">
         <v>10</v>
       </c>
       <c r="I83" t="s">
@@ -10172,21 +10189,21 @@
       <c r="C84" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D84" s="24">
+      <c r="D84" s="21">
         <v>0</v>
       </c>
       <c r="E84" s="4">
         <v>10</v>
       </c>
-      <c r="F84" s="20">
+      <c r="F84" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>12990</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10392</v>
       </c>
-      <c r="H84" s="14">
+      <c r="H84" s="27">
         <v>10</v>
       </c>
       <c r="I84" t="s">
@@ -10206,21 +10223,21 @@
       <c r="C85" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="21">
         <v>9</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
-      <c r="F85" s="20">
+      <c r="F85" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>5690</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4552</v>
       </c>
-      <c r="H85" s="14">
+      <c r="H85" s="27">
         <v>9</v>
       </c>
       <c r="I85" t="s">
@@ -10240,21 +10257,21 @@
       <c r="C86" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="21">
         <v>0</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F86" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>6990</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4893</v>
       </c>
-      <c r="H86" s="14">
+      <c r="H86" s="27">
         <v>0</v>
       </c>
       <c r="J86">
@@ -10271,21 +10288,21 @@
       <c r="C87" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D87" s="23">
+      <c r="D87" s="20">
         <v>10</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
-      <c r="F87" s="20">
+      <c r="F87" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>7990</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G87" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6392</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="27">
         <v>10</v>
       </c>
       <c r="I87" t="s">
@@ -10305,21 +10322,21 @@
       <c r="C88" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D88" s="24">
+      <c r="D88" s="21">
         <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
       </c>
-      <c r="F88" s="20">
+      <c r="F88" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H88" s="14">
+      <c r="H88" s="27">
         <v>0</v>
       </c>
       <c r="J88">
@@ -10336,21 +10353,21 @@
       <c r="C89" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89" s="21">
         <v>0</v>
       </c>
       <c r="E89" s="4">
         <v>10</v>
       </c>
-      <c r="F89" s="20">
+      <c r="F89" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4990</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>3493</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="27">
         <v>10</v>
       </c>
       <c r="I89" t="s">
@@ -10370,21 +10387,21 @@
       <c r="C90" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="21">
         <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
-      <c r="F90" s="20">
+      <c r="F90" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>3690</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>2958.4150768421027</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="27">
         <v>0</v>
       </c>
       <c r="J90">
@@ -10401,21 +10418,21 @@
       <c r="C91" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D91" s="24">
+      <c r="D91" s="21">
         <v>0</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
-      <c r="F91" s="20">
+      <c r="F91" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>8490</v>
       </c>
-      <c r="G91" s="18">
+      <c r="G91" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6792</v>
       </c>
-      <c r="H91" s="14">
+      <c r="H91" s="27">
         <v>0</v>
       </c>
       <c r="J91">
@@ -10432,21 +10449,21 @@
       <c r="C92" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D92" s="24">
+      <c r="D92" s="21">
         <v>2</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92" s="20">
+      <c r="F92" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4990</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4091.7999999999997</v>
       </c>
-      <c r="H92" s="14">
+      <c r="H92" s="27">
         <v>2</v>
       </c>
       <c r="I92" t="s">
@@ -10466,21 +10483,21 @@
       <c r="C93" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="21">
         <v>0</v>
       </c>
       <c r="E93" s="4">
         <v>10</v>
       </c>
-      <c r="F93" s="20">
+      <c r="F93" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4990</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>3493</v>
       </c>
-      <c r="H93" s="14">
+      <c r="H93" s="27">
         <v>10</v>
       </c>
       <c r="I93" t="s">
@@ -10500,21 +10517,21 @@
       <c r="C94" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D94" s="24">
+      <c r="D94" s="21">
         <v>0</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4490</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>3592</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="27">
         <v>1</v>
       </c>
       <c r="I94" t="s">
@@ -10534,21 +10551,21 @@
       <c r="C95" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D95" s="24">
+      <c r="D95" s="21">
         <v>0</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
-      <c r="F95" s="20">
+      <c r="F95" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>7590</v>
       </c>
-      <c r="G95" s="18">
+      <c r="G95" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6072</v>
       </c>
-      <c r="H95" s="14">
+      <c r="H95" s="27">
         <v>0</v>
       </c>
       <c r="J95">
@@ -10565,21 +10582,21 @@
       <c r="C96" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="20">
         <v>10</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
-      <c r="F96" s="20">
+      <c r="F96" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H96" s="14">
+      <c r="H96" s="27">
         <v>10</v>
       </c>
       <c r="I96" t="s">
@@ -10599,7 +10616,7 @@
       <c r="C97" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D97" s="25">
+      <c r="D97" s="22">
         <v>0</v>
       </c>
       <c r="E97" s="8">
@@ -10613,7 +10630,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>23465.122850890908</v>
       </c>
-      <c r="H97" s="16">
+      <c r="H97" s="28">
         <v>0</v>
       </c>
       <c r="J97" s="8">
@@ -10630,21 +10647,21 @@
       <c r="C98" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D98" s="24">
+      <c r="D98" s="21">
         <v>2</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98" s="20">
+      <c r="F98" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>1000</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>700</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="27">
         <v>3</v>
       </c>
       <c r="I98" t="s">
@@ -10664,21 +10681,21 @@
       <c r="C99" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="20">
         <v>10</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F99" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>1000</v>
       </c>
-      <c r="G99" s="18">
+      <c r="G99" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>700</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="27">
         <v>10</v>
       </c>
       <c r="I99" t="s">
@@ -10698,21 +10715,21 @@
       <c r="C100" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D100" s="24">
+      <c r="D100" s="21">
         <v>0</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F100" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>18790</v>
       </c>
-      <c r="G100" s="18">
+      <c r="G100" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>15971.5</v>
       </c>
-      <c r="H100" s="14">
+      <c r="H100" s="27">
         <v>2</v>
       </c>
       <c r="I100" t="s">
@@ -10732,21 +10749,21 @@
       <c r="C101" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D101" s="23">
+      <c r="D101" s="20">
         <v>10</v>
       </c>
       <c r="E101">
         <v>0</v>
       </c>
-      <c r="F101" s="20">
+      <c r="F101" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>21490</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>18266.5</v>
       </c>
-      <c r="H101" s="14">
+      <c r="H101" s="27">
         <v>10</v>
       </c>
       <c r="I101" t="s">
@@ -10780,7 +10797,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>17841.5</v>
       </c>
-      <c r="H102" s="16">
+      <c r="H102" s="28">
         <v>10</v>
       </c>
       <c r="I102" s="8" t="s">
@@ -10800,21 +10817,21 @@
       <c r="C103" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D103" s="23">
+      <c r="D103" s="20">
         <v>10</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
-      <c r="F103" s="20">
+      <c r="F103" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>24990</v>
       </c>
-      <c r="G103" s="18">
+      <c r="G103" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>20491.8</v>
       </c>
-      <c r="H103" s="14">
+      <c r="H103" s="27">
         <v>10</v>
       </c>
       <c r="I103" t="s">
@@ -10834,21 +10851,21 @@
       <c r="C104" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D104" s="23">
+      <c r="D104" s="20">
         <v>10</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" s="20">
+      <c r="F104" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>28990</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>23771.8</v>
       </c>
-      <c r="H104" s="14">
+      <c r="H104" s="27">
         <v>12</v>
       </c>
       <c r="I104" t="s">
@@ -10868,21 +10885,21 @@
       <c r="C105" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D105" s="23">
+      <c r="D105" s="20">
         <v>10</v>
       </c>
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="F105" s="20">
+      <c r="F105" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>31990</v>
       </c>
-      <c r="G105" s="18">
+      <c r="G105" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>26231.8</v>
       </c>
-      <c r="H105" s="14">
+      <c r="H105" s="27">
         <v>10</v>
       </c>
       <c r="I105" t="s">
@@ -10902,21 +10919,21 @@
       <c r="C106" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D106" s="24">
+      <c r="D106" s="21">
         <v>0</v>
       </c>
       <c r="E106">
         <v>5</v>
       </c>
-      <c r="F106" s="20">
+      <c r="F106" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>30990</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>25412</v>
       </c>
-      <c r="H106" s="14">
+      <c r="H106" s="27">
         <v>5</v>
       </c>
       <c r="I106" t="s">
@@ -10936,21 +10953,21 @@
       <c r="C107" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D107" s="24">
+      <c r="D107" s="21">
         <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107" s="20">
+      <c r="F107" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>25690</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>21065.8</v>
       </c>
-      <c r="H107" s="14">
+      <c r="H107" s="27">
         <v>0</v>
       </c>
       <c r="J107">
@@ -10967,21 +10984,21 @@
       <c r="C108" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D108" s="23">
+      <c r="D108" s="20">
         <v>10</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108" s="20">
+      <c r="F108" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>27490</v>
       </c>
-      <c r="G108" s="18">
+      <c r="G108" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>22541.8</v>
       </c>
-      <c r="H108" s="14">
+      <c r="H108" s="27">
         <v>10</v>
       </c>
       <c r="I108" t="s">
@@ -11001,21 +11018,21 @@
       <c r="C109" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D109" s="24">
+      <c r="D109" s="21">
         <v>7</v>
       </c>
       <c r="E109">
         <v>3</v>
       </c>
-      <c r="F109" s="20">
+      <c r="F109" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>28990</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>23771.8</v>
       </c>
-      <c r="H109" s="14">
+      <c r="H109" s="27">
         <v>10</v>
       </c>
       <c r="I109" t="s">
@@ -11035,21 +11052,21 @@
       <c r="C110" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D110" s="24">
+      <c r="D110" s="21">
         <v>0</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="F110" s="20">
+      <c r="F110" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>31990</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>26231.8</v>
       </c>
-      <c r="H110" s="14">
+      <c r="H110" s="27">
         <v>1</v>
       </c>
       <c r="I110" t="s">
@@ -11069,21 +11086,21 @@
       <c r="C111" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D111" s="23">
+      <c r="D111" s="20">
         <v>10</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="F111" s="20">
+      <c r="F111" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>34990</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G111" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>28691.8</v>
       </c>
-      <c r="H111" s="14">
+      <c r="H111" s="27">
         <v>10</v>
       </c>
       <c r="I111" t="s">
@@ -11103,21 +11120,21 @@
       <c r="C112" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D112" s="24">
+      <c r="D112" s="21">
         <v>0</v>
       </c>
       <c r="E112">
         <v>2</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F112" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>27290</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>22377.8</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H112" s="27">
         <v>2</v>
       </c>
       <c r="I112" t="s">
@@ -11137,21 +11154,21 @@
       <c r="C113" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D113" s="24">
+      <c r="D113" s="21">
         <v>0</v>
       </c>
       <c r="E113">
         <v>2</v>
       </c>
-      <c r="F113" s="20">
+      <c r="F113" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>16990</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13082.300000000001</v>
       </c>
-      <c r="H113" s="14">
+      <c r="H113" s="27">
         <v>2</v>
       </c>
       <c r="I113" t="s">
@@ -11171,21 +11188,21 @@
       <c r="C114" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D114" s="23">
+      <c r="D114" s="20">
         <v>10</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F114" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>10990</v>
       </c>
-      <c r="G114" s="18">
+      <c r="G114" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>8462.3000000000011</v>
       </c>
-      <c r="H114" s="14">
+      <c r="H114" s="27">
         <v>12</v>
       </c>
       <c r="I114" t="s">
@@ -11205,21 +11222,21 @@
       <c r="C115" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D115" s="24">
+      <c r="D115" s="21">
         <v>2</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115" s="20">
+      <c r="F115" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>15490</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11927.300000000001</v>
       </c>
-      <c r="H115" s="14">
+      <c r="H115" s="27">
         <v>2</v>
       </c>
       <c r="I115" t="s">
@@ -11239,21 +11256,21 @@
       <c r="C116" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D116" s="23">
+      <c r="D116" s="20">
         <v>10</v>
       </c>
       <c r="E116" s="4">
         <v>10</v>
       </c>
-      <c r="F116" s="20">
+      <c r="F116" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H116" s="14">
+      <c r="H116" s="27">
         <v>20</v>
       </c>
       <c r="I116" t="s">
@@ -11273,21 +11290,21 @@
       <c r="C117" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="24">
+      <c r="D117" s="21">
         <v>0</v>
       </c>
       <c r="E117" s="4">
         <v>10</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F117" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G117" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H117" s="14">
+      <c r="H117" s="27">
         <v>10</v>
       </c>
       <c r="I117" t="s">
@@ -11307,21 +11324,21 @@
       <c r="C118" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D118" s="24">
+      <c r="D118" s="21">
         <v>1</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118" s="20">
+      <c r="F118" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>12990</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10002.300000000001</v>
       </c>
-      <c r="H118" s="14">
+      <c r="H118" s="27">
         <v>1</v>
       </c>
       <c r="I118" t="s">
@@ -11341,21 +11358,21 @@
       <c r="C119" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D119" s="24">
+      <c r="D119" s="21">
         <v>0</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
-      <c r="F119" s="20">
+      <c r="F119" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>14990</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G119" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11542.300000000001</v>
       </c>
-      <c r="H119" s="14">
+      <c r="H119" s="27">
         <v>0</v>
       </c>
       <c r="J119">
@@ -11372,21 +11389,21 @@
       <c r="C120" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D120" s="23">
+      <c r="D120" s="20">
         <v>10</v>
       </c>
       <c r="E120" s="4">
         <v>10</v>
       </c>
-      <c r="F120" s="20">
+      <c r="F120" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>14990</v>
       </c>
-      <c r="G120" s="18">
+      <c r="G120" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11542.300000000001</v>
       </c>
-      <c r="H120" s="14">
+      <c r="H120" s="27">
         <v>20</v>
       </c>
       <c r="I120" t="s">
@@ -11406,21 +11423,21 @@
       <c r="C121" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D121" s="23">
+      <c r="D121" s="20">
         <v>10</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F121" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>18990</v>
       </c>
-      <c r="G121" s="18">
+      <c r="G121" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>14622.300000000001</v>
       </c>
-      <c r="H121" s="14">
+      <c r="H121" s="27">
         <v>10</v>
       </c>
       <c r="I121" t="s">
@@ -11440,21 +11457,21 @@
       <c r="C122" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D122" s="23">
+      <c r="D122" s="20">
         <v>10</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F122" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>5490</v>
       </c>
-      <c r="G122" s="18">
+      <c r="G122" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4392</v>
       </c>
-      <c r="H122" s="14">
+      <c r="H122" s="27">
         <v>10</v>
       </c>
       <c r="I122" t="s">
@@ -11474,21 +11491,21 @@
       <c r="C123" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D123" s="23">
+      <c r="D123" s="20">
         <v>10</v>
       </c>
       <c r="E123">
         <v>2</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>10190</v>
       </c>
-      <c r="G123" s="18">
+      <c r="G123" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7846.3</v>
       </c>
-      <c r="H123" s="14">
+      <c r="H123" s="27">
         <v>12</v>
       </c>
       <c r="I123" t="s">
@@ -11508,21 +11525,21 @@
       <c r="C124" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D124" s="24">
+      <c r="D124" s="21">
         <v>0</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F124" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>14990</v>
       </c>
-      <c r="G124" s="18">
+      <c r="G124" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11542.300000000001</v>
       </c>
-      <c r="H124" s="14">
+      <c r="H124" s="27">
         <v>1</v>
       </c>
       <c r="I124" t="s">
@@ -11542,21 +11559,21 @@
       <c r="C125" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D125" s="23">
+      <c r="D125" s="20">
         <v>10</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F125" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9790</v>
       </c>
-      <c r="G125" s="18">
+      <c r="G125" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7538.3</v>
       </c>
-      <c r="H125" s="14">
+      <c r="H125" s="27">
         <v>11</v>
       </c>
       <c r="I125" t="s">
@@ -11576,21 +11593,21 @@
       <c r="C126" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D126" s="24">
+      <c r="D126" s="21">
         <v>2</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>7490</v>
       </c>
-      <c r="G126" s="18">
+      <c r="G126" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>5992</v>
       </c>
-      <c r="H126" s="14">
+      <c r="H126" s="27">
         <v>2</v>
       </c>
       <c r="I126" t="s">
@@ -11610,21 +11627,21 @@
       <c r="C127" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D127" s="20">
         <v>10</v>
       </c>
       <c r="E127">
         <v>4</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F127" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>12590</v>
       </c>
-      <c r="G127" s="18">
+      <c r="G127" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10072</v>
       </c>
-      <c r="H127" s="14">
+      <c r="H127" s="27">
         <v>14</v>
       </c>
       <c r="I127" t="s">
@@ -11644,21 +11661,21 @@
       <c r="C128" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D128" s="20">
         <v>10</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>6990</v>
       </c>
-      <c r="G128" s="18">
+      <c r="G128" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>5942</v>
       </c>
-      <c r="H128" s="14">
+      <c r="H128" s="27">
         <v>10</v>
       </c>
       <c r="I128" t="s">
@@ -11678,21 +11695,21 @@
       <c r="C129" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D129" s="20">
         <v>10</v>
       </c>
       <c r="E129">
         <v>1</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13990</v>
       </c>
-      <c r="G129" s="18">
+      <c r="G129" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11192</v>
       </c>
-      <c r="H129" s="14">
+      <c r="H129" s="27">
         <v>11</v>
       </c>
       <c r="I129" t="s">
@@ -11726,7 +11743,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7302</v>
       </c>
-      <c r="H130" s="16">
+      <c r="H130" s="28">
         <v>10</v>
       </c>
       <c r="I130" s="8" t="s">
@@ -11746,21 +11763,21 @@
       <c r="C131" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D131" s="23">
+      <c r="D131" s="20">
         <v>10</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
-      <c r="F131" s="20">
+      <c r="F131" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>18990</v>
       </c>
-      <c r="G131" s="18">
+      <c r="G131" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>14622.300000000001</v>
       </c>
-      <c r="H131" s="14">
+      <c r="H131" s="27">
         <v>10</v>
       </c>
       <c r="I131" t="s">
@@ -11780,21 +11797,21 @@
       <c r="C132" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D132" s="23">
+      <c r="D132" s="20">
         <v>10</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17990</v>
       </c>
-      <c r="G132" s="18">
+      <c r="G132" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13852.300000000001</v>
       </c>
-      <c r="H132" s="14">
+      <c r="H132" s="27">
         <v>11</v>
       </c>
       <c r="I132" t="s">
@@ -11814,21 +11831,21 @@
       <c r="C133" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D133" s="24">
+      <c r="D133" s="21">
         <v>8</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133" s="20">
+      <c r="F133" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17990</v>
       </c>
-      <c r="G133" s="18">
+      <c r="G133" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13852.300000000001</v>
       </c>
-      <c r="H133" s="14">
+      <c r="H133" s="27">
         <v>8</v>
       </c>
       <c r="I133" t="s">
@@ -11848,21 +11865,21 @@
       <c r="C134" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D134" s="23">
+      <c r="D134" s="20">
         <v>10</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>16990</v>
       </c>
-      <c r="G134" s="18">
+      <c r="G134" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13082.300000000001</v>
       </c>
-      <c r="H134" s="14">
+      <c r="H134" s="27">
         <v>10</v>
       </c>
       <c r="I134" t="s">
@@ -11882,21 +11899,21 @@
       <c r="C135" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D135" s="23">
+      <c r="D135" s="20">
         <v>10</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
-      <c r="F135" s="20">
+      <c r="F135" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>18490</v>
       </c>
-      <c r="G135" s="18">
+      <c r="G135" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>14237.300000000001</v>
       </c>
-      <c r="H135" s="14">
+      <c r="H135" s="27">
         <v>10</v>
       </c>
       <c r="I135" t="s">
@@ -11916,21 +11933,21 @@
       <c r="C136" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D136" s="23">
+      <c r="D136" s="20">
         <v>10</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9790</v>
       </c>
-      <c r="G136" s="18">
+      <c r="G136" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7538.3</v>
       </c>
-      <c r="H136" s="14">
+      <c r="H136" s="27">
         <v>11</v>
       </c>
       <c r="I136" t="s">
@@ -11950,21 +11967,21 @@
       <c r="C137" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D137" s="23">
+      <c r="D137" s="20">
         <v>10</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
-      <c r="F137" s="20">
+      <c r="F137" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>14490</v>
       </c>
-      <c r="G137" s="18">
+      <c r="G137" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11157.300000000001</v>
       </c>
-      <c r="H137" s="14">
+      <c r="H137" s="27">
         <v>10</v>
       </c>
       <c r="I137" t="s">
@@ -11984,21 +12001,21 @@
       <c r="C138" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D138" s="23">
+      <c r="D138" s="20">
         <v>10</v>
       </c>
       <c r="E138" s="4">
         <v>10</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F138" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9190</v>
       </c>
-      <c r="G138" s="18">
+      <c r="G138" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7076.3</v>
       </c>
-      <c r="H138" s="14">
+      <c r="H138" s="27">
         <v>20</v>
       </c>
       <c r="I138" t="s">
@@ -12018,21 +12035,21 @@
       <c r="C139" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D139" s="23">
+      <c r="D139" s="20">
         <v>10</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
-      <c r="F139" s="20">
+      <c r="F139" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>11990</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>9592</v>
       </c>
-      <c r="H139" s="14">
+      <c r="H139" s="27">
         <v>12</v>
       </c>
       <c r="I139" t="s">
@@ -12066,7 +12083,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6367</v>
       </c>
-      <c r="H140" s="16">
+      <c r="H140" s="28">
         <v>10</v>
       </c>
       <c r="I140" s="8" t="s">
@@ -12086,21 +12103,21 @@
       <c r="C141" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D141" s="24">
+      <c r="D141" s="21">
         <v>9</v>
       </c>
       <c r="E141">
         <v>6</v>
       </c>
-      <c r="F141" s="20">
+      <c r="F141" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13990</v>
       </c>
-      <c r="G141" s="18">
+      <c r="G141" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11192</v>
       </c>
-      <c r="H141" s="14">
+      <c r="H141" s="27">
         <v>15</v>
       </c>
       <c r="I141" t="s">
@@ -12120,21 +12137,21 @@
       <c r="C142" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D142" s="24">
+      <c r="D142" s="21">
         <v>1</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
-      <c r="F142" s="20">
+      <c r="F142" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>16490</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>12697.300000000001</v>
       </c>
-      <c r="H142" s="14">
+      <c r="H142" s="27">
         <v>1</v>
       </c>
       <c r="I142" t="s">
@@ -12154,21 +12171,21 @@
       <c r="C143" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D143" s="23">
+      <c r="D143" s="20">
         <v>10</v>
       </c>
       <c r="E143">
         <v>2</v>
       </c>
-      <c r="F143" s="20">
+      <c r="F143" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>21990</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G143" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>16932.3</v>
       </c>
-      <c r="H143" s="14">
+      <c r="H143" s="27">
         <v>12</v>
       </c>
       <c r="I143" t="s">
@@ -12188,21 +12205,21 @@
       <c r="C144" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D144" s="24">
+      <c r="D144" s="21">
         <v>2</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
-      <c r="F144" s="20">
+      <c r="F144" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>10190</v>
       </c>
-      <c r="G144" s="18">
+      <c r="G144" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7846.3</v>
       </c>
-      <c r="H144" s="14">
+      <c r="H144" s="27">
         <v>2</v>
       </c>
       <c r="I144" t="s">
@@ -12222,21 +12239,21 @@
       <c r="C145" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D145" s="24">
+      <c r="D145" s="21">
         <v>9</v>
       </c>
       <c r="E145">
         <v>2</v>
       </c>
-      <c r="F145" s="20">
+      <c r="F145" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>14990</v>
       </c>
-      <c r="G145" s="18">
+      <c r="G145" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11542.300000000001</v>
       </c>
-      <c r="H145" s="14">
+      <c r="H145" s="27">
         <v>11</v>
       </c>
       <c r="I145" t="s">
@@ -12256,21 +12273,21 @@
       <c r="C146" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D146" s="23">
+      <c r="D146" s="20">
         <v>10</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
-      <c r="F146" s="20">
+      <c r="F146" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9490</v>
       </c>
-      <c r="G146" s="18">
+      <c r="G146" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7307.3</v>
       </c>
-      <c r="H146" s="14">
+      <c r="H146" s="27">
         <v>11</v>
       </c>
       <c r="I146" t="s">
@@ -12290,21 +12307,21 @@
       <c r="C147" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D147" s="24">
+      <c r="D147" s="21">
         <v>9</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
-      <c r="F147" s="20">
+      <c r="F147" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>6990</v>
       </c>
-      <c r="G147" s="18">
+      <c r="G147" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>5592</v>
       </c>
-      <c r="H147" s="14">
+      <c r="H147" s="27">
         <v>9</v>
       </c>
       <c r="I147" t="s">
@@ -12324,21 +12341,21 @@
       <c r="C148" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D148" s="24">
+      <c r="D148" s="21">
         <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
-      <c r="F148" s="20">
+      <c r="F148" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>12490</v>
       </c>
-      <c r="G148" s="18">
+      <c r="G148" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>9992</v>
       </c>
-      <c r="H148" s="14">
+      <c r="H148" s="27">
         <v>0</v>
       </c>
       <c r="J148">
@@ -12355,21 +12372,21 @@
       <c r="C149" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D149" s="23">
+      <c r="D149" s="20">
         <v>10</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
-      <c r="F149" s="20">
+      <c r="F149" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>7990</v>
       </c>
-      <c r="G149" s="18">
+      <c r="G149" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>6392</v>
       </c>
-      <c r="H149" s="14">
+      <c r="H149" s="27">
         <v>10</v>
       </c>
       <c r="I149" t="s">
@@ -12389,21 +12406,21 @@
       <c r="C150" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D150" s="23">
+      <c r="D150" s="20">
         <v>10</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
-      <c r="F150" s="20">
+      <c r="F150" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>16490</v>
       </c>
-      <c r="G150" s="18">
+      <c r="G150" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>12697.300000000001</v>
       </c>
-      <c r="H150" s="14">
+      <c r="H150" s="27">
         <v>10</v>
       </c>
       <c r="I150" t="s">
@@ -12423,21 +12440,21 @@
       <c r="C151" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D151" s="23">
+      <c r="D151" s="20">
         <v>10</v>
       </c>
       <c r="E151">
         <v>7</v>
       </c>
-      <c r="F151" s="20">
+      <c r="F151" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>16990</v>
       </c>
-      <c r="G151" s="18">
+      <c r="G151" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13082.300000000001</v>
       </c>
-      <c r="H151" s="14">
+      <c r="H151" s="27">
         <v>17</v>
       </c>
       <c r="I151" t="s">
@@ -12457,21 +12474,21 @@
       <c r="C152" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D152" s="23">
+      <c r="D152" s="20">
         <v>10</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
-      <c r="F152" s="20">
+      <c r="F152" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>16290</v>
       </c>
-      <c r="G152" s="18">
+      <c r="G152" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>12543.300000000001</v>
       </c>
-      <c r="H152" s="14">
+      <c r="H152" s="27">
         <v>10</v>
       </c>
       <c r="I152" t="s">
@@ -12491,21 +12508,21 @@
       <c r="C153" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D153" s="23">
+      <c r="D153" s="20">
         <v>10</v>
       </c>
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="F153" s="20">
+      <c r="F153" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17690</v>
       </c>
-      <c r="G153" s="18">
+      <c r="G153" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13621.300000000001</v>
       </c>
-      <c r="H153" s="14">
+      <c r="H153" s="27">
         <v>10</v>
       </c>
       <c r="I153" t="s">
@@ -12525,21 +12542,21 @@
       <c r="C154" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D154" s="23">
+      <c r="D154" s="20">
         <v>10</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
-      <c r="F154" s="20">
+      <c r="F154" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G154" s="18">
+      <c r="G154" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7692.3000000000011</v>
       </c>
-      <c r="H154" s="14">
+      <c r="H154" s="27">
         <v>11</v>
       </c>
       <c r="I154" t="s">
@@ -12559,21 +12576,21 @@
       <c r="C155" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D155" s="24">
+      <c r="D155" s="21">
         <v>8</v>
       </c>
       <c r="E155">
         <v>8</v>
       </c>
-      <c r="F155" s="20">
+      <c r="F155" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>14990</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G155" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11542.300000000001</v>
       </c>
-      <c r="H155" s="14">
+      <c r="H155" s="27">
         <v>16</v>
       </c>
       <c r="I155" t="s">
@@ -12593,21 +12610,21 @@
       <c r="C156" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D156" s="23">
+      <c r="D156" s="20">
         <v>10</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
-      <c r="F156" s="20">
+      <c r="F156" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>21990</v>
       </c>
-      <c r="G156" s="18">
+      <c r="G156" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>16932.3</v>
       </c>
-      <c r="H156" s="14">
+      <c r="H156" s="27">
         <v>10</v>
       </c>
       <c r="I156" t="s">
@@ -12641,7 +12658,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30 990,00</v>
       </c>
-      <c r="H157" s="16">
+      <c r="H157" s="28">
         <v>10</v>
       </c>
       <c r="I157" s="8" t="s">
@@ -12664,21 +12681,21 @@
       <c r="C158" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D158" s="24">
+      <c r="D158" s="21">
         <v>7</v>
       </c>
       <c r="E158">
         <v>1</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>16990</v>
       </c>
-      <c r="G158" s="18">
+      <c r="G158" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13592</v>
       </c>
-      <c r="H158" s="14">
+      <c r="H158" s="27">
         <v>8</v>
       </c>
       <c r="I158" t="s">
@@ -12698,21 +12715,21 @@
       <c r="C159" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D159" s="24">
+      <c r="D159" s="21">
         <v>0</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
-      <c r="F159" s="20">
+      <c r="F159" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>9990</v>
       </c>
-      <c r="G159" s="18">
+      <c r="G159" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>7992</v>
       </c>
-      <c r="H159" s="14">
+      <c r="H159" s="27">
         <v>0</v>
       </c>
       <c r="J159">
@@ -12729,21 +12746,21 @@
       <c r="C160" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D160" s="23">
+      <c r="D160" s="20">
         <v>10</v>
       </c>
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>15990</v>
       </c>
-      <c r="G160" s="18">
+      <c r="G160" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>12312.300000000001</v>
       </c>
-      <c r="H160" s="14">
+      <c r="H160" s="27">
         <v>11</v>
       </c>
       <c r="I160" t="s">
@@ -12763,21 +12780,21 @@
       <c r="C161" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D161" s="24">
+      <c r="D161" s="21">
         <v>1</v>
       </c>
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161" s="20">
+      <c r="F161" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17090</v>
       </c>
-      <c r="G161" s="18">
+      <c r="G161" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13159.3</v>
       </c>
-      <c r="H161" s="14">
+      <c r="H161" s="27">
         <v>2</v>
       </c>
       <c r="I161" t="s">
@@ -12797,21 +12814,21 @@
       <c r="C162" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D162" s="23">
+      <c r="D162" s="20">
         <v>10</v>
       </c>
       <c r="E162">
         <v>9</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>15490</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G162" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>12392</v>
       </c>
-      <c r="H162" s="14">
+      <c r="H162" s="27">
         <v>19</v>
       </c>
       <c r="I162" t="s">
@@ -12831,21 +12848,21 @@
       <c r="C163" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D163" s="23">
+      <c r="D163" s="20">
         <v>10</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>19990</v>
       </c>
-      <c r="G163" s="18">
+      <c r="G163" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>15392.300000000001</v>
       </c>
-      <c r="H163" s="14">
+      <c r="H163" s="27">
         <v>10</v>
       </c>
       <c r="I163" t="s">
@@ -12865,21 +12882,21 @@
       <c r="C164" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D164" s="23">
+      <c r="D164" s="20">
         <v>10</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13990</v>
       </c>
-      <c r="G164" s="18">
+      <c r="G164" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>11192</v>
       </c>
-      <c r="H164" s="14">
+      <c r="H164" s="27">
         <v>10</v>
       </c>
       <c r="I164" t="s">
@@ -12899,21 +12916,21 @@
       <c r="C165" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D165" s="23">
+      <c r="D165" s="20">
         <v>10</v>
       </c>
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="F165" s="20">
+      <c r="F165" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17990</v>
       </c>
-      <c r="G165" s="18">
+      <c r="G165" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>14392</v>
       </c>
-      <c r="H165" s="14">
+      <c r="H165" s="27">
         <v>11</v>
       </c>
       <c r="I165" t="s">
@@ -12947,7 +12964,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10117.5</v>
       </c>
-      <c r="H166" s="16">
+      <c r="H166" s="28">
         <v>10</v>
       </c>
       <c r="I166" s="8" t="s">
@@ -12967,21 +12984,21 @@
       <c r="C167" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D167" s="23">
+      <c r="D167" s="20">
         <v>10</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
-      <c r="F167" s="20">
+      <c r="F167" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13990</v>
       </c>
-      <c r="G167" s="18">
+      <c r="G167" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10492.5</v>
       </c>
-      <c r="H167" s="14">
+      <c r="H167" s="27">
         <v>10</v>
       </c>
       <c r="I167" t="s">
@@ -13001,21 +13018,21 @@
       <c r="C168" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D168" s="23">
+      <c r="D168" s="20">
         <v>10</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>13990</v>
       </c>
-      <c r="G168" s="18">
+      <c r="G168" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>10492.5</v>
       </c>
-      <c r="H168" s="14">
+      <c r="H168" s="27">
         <v>10</v>
       </c>
       <c r="I168" t="s">
@@ -13035,21 +13052,21 @@
       <c r="C169" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D169" s="24">
+      <c r="D169" s="21">
         <v>8</v>
       </c>
       <c r="E169">
         <v>1</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>25990</v>
       </c>
-      <c r="G169" s="18">
+      <c r="G169" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>20272.2</v>
       </c>
-      <c r="H169" s="14">
+      <c r="H169" s="27">
         <v>9</v>
       </c>
       <c r="I169" t="s">
@@ -13069,21 +13086,21 @@
       <c r="C170" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D170" s="23">
+      <c r="D170" s="20">
         <v>10</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>45990</v>
       </c>
-      <c r="G170" s="18">
+      <c r="G170" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>35872.200000000004</v>
       </c>
-      <c r="H170" s="14">
+      <c r="H170" s="27">
         <v>10</v>
       </c>
       <c r="I170" t="s">
@@ -13103,21 +13120,21 @@
       <c r="C171" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D171" s="24">
+      <c r="D171" s="21">
         <v>0</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
-      <c r="F171" s="20" t="str">
+      <c r="F171" s="17" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>76 424</v>
       </c>
-      <c r="G171" s="18" t="str">
+      <c r="G171" s="15" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>97 980</v>
       </c>
-      <c r="H171" s="14">
+      <c r="H171" s="27">
         <v>0</v>
       </c>
       <c r="J171">
@@ -13137,21 +13154,21 @@
       <c r="C172" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D172" s="23">
+      <c r="D172" s="20">
         <v>10</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
-      <c r="F172" s="20">
+      <c r="F172" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>49990</v>
       </c>
-      <c r="G172" s="18">
+      <c r="G172" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>40991.799999999996</v>
       </c>
-      <c r="H172" s="14">
+      <c r="H172" s="27">
         <v>10</v>
       </c>
       <c r="I172" t="s">
@@ -13171,21 +13188,21 @@
       <c r="C173" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D173" s="23">
+      <c r="D173" s="20">
         <v>10</v>
       </c>
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="F173" s="20">
+      <c r="F173" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>49990</v>
       </c>
-      <c r="G173" s="18">
+      <c r="G173" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>40991.799999999996</v>
       </c>
-      <c r="H173" s="14">
+      <c r="H173" s="27">
         <v>11</v>
       </c>
       <c r="I173" t="s">
@@ -13205,21 +13222,21 @@
       <c r="C174" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D174" s="23">
+      <c r="D174" s="20">
         <v>10</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
-      <c r="F174" s="20">
+      <c r="F174" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>49990</v>
       </c>
-      <c r="G174" s="18">
+      <c r="G174" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>40991.799999999996</v>
       </c>
-      <c r="H174" s="14">
+      <c r="H174" s="27">
         <v>10</v>
       </c>
       <c r="I174" t="s">
@@ -13239,21 +13256,21 @@
       <c r="C175" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D175" s="23">
+      <c r="D175" s="20">
         <v>10</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
-      <c r="F175" s="20">
+      <c r="F175" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>49990</v>
       </c>
-      <c r="G175" s="18">
+      <c r="G175" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>40991.799999999996</v>
       </c>
-      <c r="H175" s="14">
+      <c r="H175" s="27">
         <v>10</v>
       </c>
       <c r="I175" t="s">
@@ -13273,21 +13290,21 @@
       <c r="C176" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D176" s="23">
+      <c r="D176" s="20">
         <v>10</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
-      <c r="F176" s="20">
+      <c r="F176" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>18490</v>
       </c>
-      <c r="G176" s="18">
+      <c r="G176" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>15716.5</v>
       </c>
-      <c r="H176" s="14">
+      <c r="H176" s="27">
         <v>10</v>
       </c>
       <c r="I176" t="s">
@@ -13307,21 +13324,21 @@
       <c r="C177" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D177" s="24">
+      <c r="D177" s="21">
         <v>9</v>
       </c>
       <c r="E177">
         <v>1</v>
       </c>
-      <c r="F177" s="20">
+      <c r="F177" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>25490</v>
       </c>
-      <c r="G177" s="18">
+      <c r="G177" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>21666.5</v>
       </c>
-      <c r="H177" s="14">
+      <c r="H177" s="27">
         <v>10</v>
       </c>
       <c r="I177" t="s">
@@ -13341,21 +13358,21 @@
       <c r="C178" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D178" s="23">
+      <c r="D178" s="20">
         <v>10</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
-      <c r="F178" s="20">
+      <c r="F178" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>20990</v>
       </c>
-      <c r="G178" s="18">
+      <c r="G178" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>17841.5</v>
       </c>
-      <c r="H178" s="14">
+      <c r="H178" s="27">
         <v>10</v>
       </c>
       <c r="I178" t="s">
@@ -13375,21 +13392,21 @@
       <c r="C179" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D179" s="23">
+      <c r="D179" s="20">
         <v>10</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179" s="20">
+      <c r="F179" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>29990</v>
       </c>
-      <c r="G179" s="18">
+      <c r="G179" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>25491.5</v>
       </c>
-      <c r="H179" s="14">
+      <c r="H179" s="27">
         <v>10</v>
       </c>
       <c r="I179" t="s">
@@ -13409,21 +13426,21 @@
       <c r="C180" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D180" s="23">
+      <c r="D180" s="20">
         <v>10</v>
       </c>
       <c r="E180">
         <v>0</v>
       </c>
-      <c r="F180" s="20">
+      <c r="F180" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>49990</v>
       </c>
-      <c r="G180" s="18">
+      <c r="G180" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>37492.5</v>
       </c>
-      <c r="H180" s="14">
+      <c r="H180" s="27">
         <v>10</v>
       </c>
       <c r="I180" t="s">
@@ -13443,21 +13460,21 @@
       <c r="C181" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D181" s="24">
+      <c r="D181" s="21">
         <v>0</v>
       </c>
       <c r="E181">
         <v>0</v>
       </c>
-      <c r="F181" s="20">
+      <c r="F181" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>42490</v>
       </c>
-      <c r="G181" s="18">
+      <c r="G181" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>36116.5</v>
       </c>
-      <c r="H181" s="14">
+      <c r="H181" s="27">
         <v>0</v>
       </c>
       <c r="J181">
@@ -13474,21 +13491,21 @@
       <c r="C182" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D182" s="23">
+      <c r="D182" s="20">
         <v>10</v>
       </c>
       <c r="E182">
         <v>0</v>
       </c>
-      <c r="F182" s="20">
+      <c r="F182" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>62990</v>
       </c>
-      <c r="G182" s="18">
+      <c r="G182" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>47242.5</v>
       </c>
-      <c r="H182" s="14">
+      <c r="H182" s="27">
         <v>10</v>
       </c>
       <c r="I182" t="s">
@@ -13508,21 +13525,21 @@
       <c r="C183" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D183" s="23">
+      <c r="D183" s="20">
         <v>10</v>
       </c>
       <c r="E183">
         <v>0</v>
       </c>
-      <c r="F183" s="20">
+      <c r="F183" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>62990</v>
       </c>
-      <c r="G183" s="18">
+      <c r="G183" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>47242.5</v>
       </c>
-      <c r="H183" s="14">
+      <c r="H183" s="27">
         <v>10</v>
       </c>
       <c r="I183" t="s">
@@ -13542,21 +13559,21 @@
       <c r="C184" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D184" s="24">
+      <c r="D184" s="21">
         <v>2</v>
       </c>
       <c r="E184">
         <v>1</v>
       </c>
-      <c r="F184" s="20">
+      <c r="F184" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>62990</v>
       </c>
-      <c r="G184" s="18">
+      <c r="G184" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>47242.5</v>
       </c>
-      <c r="H184" s="14">
+      <c r="H184" s="27">
         <v>3</v>
       </c>
       <c r="I184" t="s">
@@ -13576,21 +13593,21 @@
       <c r="C185" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D185" s="23">
+      <c r="D185" s="20">
         <v>10</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185" s="20">
+      <c r="F185" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>62990</v>
       </c>
-      <c r="G185" s="18">
+      <c r="G185" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>47242.5</v>
       </c>
-      <c r="H185" s="14">
+      <c r="H185" s="27">
         <v>11</v>
       </c>
       <c r="I185" t="s">
@@ -13610,21 +13627,21 @@
       <c r="C186" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D186" s="23">
+      <c r="D186" s="20">
         <v>10</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="F186" s="20">
+      <c r="F186" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>39490</v>
       </c>
-      <c r="G186" s="18">
+      <c r="G186" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>33566.5</v>
       </c>
-      <c r="H186" s="14">
+      <c r="H186" s="27">
         <v>10</v>
       </c>
       <c r="I186" t="s">
@@ -13644,21 +13661,21 @@
       <c r="C187" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D187" s="24">
+      <c r="D187" s="21">
         <v>4</v>
       </c>
       <c r="E187">
         <v>0</v>
       </c>
-      <c r="F187" s="20">
+      <c r="F187" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>34990</v>
       </c>
-      <c r="G187" s="18">
+      <c r="G187" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>29741.5</v>
       </c>
-      <c r="H187" s="14">
+      <c r="H187" s="27">
         <v>4</v>
       </c>
       <c r="I187" t="s">
@@ -13678,21 +13695,21 @@
       <c r="C188" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D188" s="23">
+      <c r="D188" s="20">
         <v>10</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
-      <c r="F188" s="20">
+      <c r="F188" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>40990</v>
       </c>
-      <c r="G188" s="18">
+      <c r="G188" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>34841.5</v>
       </c>
-      <c r="H188" s="14">
+      <c r="H188" s="27">
         <v>10</v>
       </c>
       <c r="I188" t="s">
@@ -13712,21 +13729,21 @@
       <c r="C189" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D189" s="24">
+      <c r="D189" s="21">
         <v>3</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
-      <c r="F189" s="20">
+      <c r="F189" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>36990</v>
       </c>
-      <c r="G189" s="18">
+      <c r="G189" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>31441.5</v>
       </c>
-      <c r="H189" s="14">
+      <c r="H189" s="27">
         <v>3</v>
       </c>
       <c r="I189" t="s">
@@ -13746,21 +13763,21 @@
       <c r="C190" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D190" s="23">
+      <c r="D190" s="20">
         <v>10</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
-      <c r="F190" s="20">
+      <c r="F190" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>62990</v>
       </c>
-      <c r="G190" s="18">
+      <c r="G190" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>47242.5</v>
       </c>
-      <c r="H190" s="14">
+      <c r="H190" s="27">
         <v>11</v>
       </c>
       <c r="I190" t="s">
@@ -13780,21 +13797,21 @@
       <c r="C191" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D191" s="24">
+      <c r="D191" s="21">
         <v>0</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
-      <c r="F191" s="20">
+      <c r="F191" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>45990</v>
       </c>
-      <c r="G191" s="18">
+      <c r="G191" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>37711.799999999996</v>
       </c>
-      <c r="H191" s="14">
+      <c r="H191" s="27">
         <v>0</v>
       </c>
       <c r="J191">
@@ -13811,21 +13828,21 @@
       <c r="C192" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D192" s="24">
+      <c r="D192" s="21">
         <v>3</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
-      <c r="F192" s="20">
+      <c r="F192" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>41690</v>
       </c>
-      <c r="G192" s="18">
+      <c r="G192" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>34185.799999999996</v>
       </c>
-      <c r="H192" s="14">
+      <c r="H192" s="27">
         <v>3</v>
       </c>
       <c r="I192" t="s">
@@ -13845,21 +13862,21 @@
       <c r="C193" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D193" s="24">
+      <c r="D193" s="21">
         <v>1</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
-      <c r="F193" s="20">
+      <c r="F193" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>41990</v>
       </c>
-      <c r="G193" s="18">
+      <c r="G193" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>34431.799999999996</v>
       </c>
-      <c r="H193" s="14">
+      <c r="H193" s="27">
         <v>1</v>
       </c>
       <c r="I193" t="s">
@@ -13879,21 +13896,21 @@
       <c r="C194" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D194" s="24">
+      <c r="D194" s="21">
         <v>5</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
-      <c r="F194" s="20">
+      <c r="F194" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>49990</v>
       </c>
-      <c r="G194" s="18">
+      <c r="G194" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>40991.799999999996</v>
       </c>
-      <c r="H194" s="14">
+      <c r="H194" s="27">
         <v>5</v>
       </c>
       <c r="I194" t="s">
@@ -13913,21 +13930,21 @@
       <c r="C195" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D195" s="23">
+      <c r="D195" s="20">
         <v>10</v>
       </c>
       <c r="E195">
         <v>2</v>
       </c>
-      <c r="F195" s="20">
+      <c r="F195" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>45990</v>
       </c>
-      <c r="G195" s="18">
+      <c r="G195" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>37711.799999999996</v>
       </c>
-      <c r="H195" s="14">
+      <c r="H195" s="27">
         <v>12</v>
       </c>
       <c r="I195" t="s">
@@ -13947,21 +13964,21 @@
       <c r="C196" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D196" s="23">
+      <c r="D196" s="20">
         <v>10</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="F196" s="20">
+      <c r="F196" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>47990</v>
       </c>
-      <c r="G196" s="18">
+      <c r="G196" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>39351.799999999996</v>
       </c>
-      <c r="H196" s="14">
+      <c r="H196" s="27">
         <v>10</v>
       </c>
       <c r="I196" t="s">
@@ -13981,21 +13998,21 @@
       <c r="C197" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D197" s="23">
+      <c r="D197" s="20">
         <v>10</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
-      <c r="F197" s="20">
+      <c r="F197" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>62990</v>
       </c>
-      <c r="G197" s="18">
+      <c r="G197" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>47239.784445594065</v>
       </c>
-      <c r="H197" s="14">
+      <c r="H197" s="27">
         <v>10</v>
       </c>
       <c r="I197" t="s">
@@ -14015,21 +14032,21 @@
       <c r="C198" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D198" s="23">
+      <c r="D198" s="20">
         <v>10</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
-      <c r="F198" s="20">
+      <c r="F198" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>38990</v>
       </c>
-      <c r="G198" s="18">
+      <c r="G198" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30412.2</v>
       </c>
-      <c r="H198" s="14">
+      <c r="H198" s="27">
         <v>10</v>
       </c>
       <c r="I198" t="s">
@@ -14063,7 +14080,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30 990,00</v>
       </c>
-      <c r="H199" s="16">
+      <c r="H199" s="28">
         <v>10</v>
       </c>
       <c r="I199" s="8" t="s">
@@ -14097,7 +14114,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30 990,00</v>
       </c>
-      <c r="H200" s="16">
+      <c r="H200" s="28">
         <v>10</v>
       </c>
       <c r="I200" s="8" t="s">
@@ -14131,7 +14148,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>30 990,00</v>
       </c>
-      <c r="H201" s="16">
+      <c r="H201" s="28">
         <v>10</v>
       </c>
       <c r="I201" s="8" t="s">
@@ -14151,21 +14168,21 @@
       <c r="C202" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D202" s="23">
+      <c r="D202" s="20">
         <v>10</v>
       </c>
       <c r="E202">
         <v>0</v>
       </c>
-      <c r="F202" s="20">
+      <c r="F202" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>23990</v>
       </c>
-      <c r="G202" s="18">
+      <c r="G202" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19671.8</v>
       </c>
-      <c r="H202" s="14">
+      <c r="H202" s="27">
         <v>10</v>
       </c>
       <c r="I202" t="s">
@@ -14185,21 +14202,21 @@
       <c r="C203" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D203" s="23">
+      <c r="D203" s="20">
         <v>10</v>
       </c>
       <c r="E203">
         <v>0</v>
       </c>
-      <c r="F203" s="20">
+      <c r="F203" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>30990</v>
       </c>
-      <c r="G203" s="18">
+      <c r="G203" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>24792</v>
       </c>
-      <c r="H203" s="14">
+      <c r="H203" s="27">
         <v>10</v>
       </c>
       <c r="I203" t="s">
@@ -14219,21 +14236,21 @@
       <c r="C204" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D204" s="23">
+      <c r="D204" s="20">
         <v>10</v>
       </c>
       <c r="E204">
         <v>0</v>
       </c>
-      <c r="F204" s="20">
+      <c r="F204" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>30990</v>
       </c>
-      <c r="G204" s="18">
+      <c r="G204" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>24792</v>
       </c>
-      <c r="H204" s="14">
+      <c r="H204" s="27">
         <v>10</v>
       </c>
       <c r="I204" t="s">
@@ -14253,21 +14270,21 @@
       <c r="C205" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D205" s="23">
+      <c r="D205" s="20">
         <v>10</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
-      <c r="F205" s="20">
+      <c r="F205" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>30990</v>
       </c>
-      <c r="G205" s="18">
+      <c r="G205" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>24792</v>
       </c>
-      <c r="H205" s="14">
+      <c r="H205" s="27">
         <v>10</v>
       </c>
       <c r="I205" t="s">
@@ -14287,21 +14304,21 @@
       <c r="C206" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D206" s="23">
+      <c r="D206" s="20">
         <v>10</v>
       </c>
       <c r="E206">
         <v>0</v>
       </c>
-      <c r="F206" s="20">
+      <c r="F206" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>30990</v>
       </c>
-      <c r="G206" s="18">
+      <c r="G206" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>24792</v>
       </c>
-      <c r="H206" s="14">
+      <c r="H206" s="27">
         <v>10</v>
       </c>
       <c r="I206" t="s">
@@ -14321,21 +14338,21 @@
       <c r="C207" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D207" s="23">
+      <c r="D207" s="20">
         <v>10</v>
       </c>
       <c r="E207">
         <v>1</v>
       </c>
-      <c r="F207" s="20">
+      <c r="F207" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>23490</v>
       </c>
-      <c r="G207" s="18">
+      <c r="G207" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19496.7</v>
       </c>
-      <c r="H207" s="14">
+      <c r="H207" s="27">
         <v>11</v>
       </c>
       <c r="I207" t="s">
@@ -14355,21 +14372,21 @@
       <c r="C208" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D208" s="23">
+      <c r="D208" s="20">
         <v>10</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
-      <c r="F208" s="20">
+      <c r="F208" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>27990</v>
       </c>
-      <c r="G208" s="18">
+      <c r="G208" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>22671.9</v>
       </c>
-      <c r="H208" s="14">
+      <c r="H208" s="27">
         <v>10</v>
       </c>
       <c r="I208" t="s">
@@ -14389,21 +14406,21 @@
       <c r="C209" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D209" s="23">
+      <c r="D209" s="20">
         <v>10</v>
       </c>
       <c r="E209">
         <v>0</v>
       </c>
-      <c r="F209" s="20">
+      <c r="F209" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>22990</v>
       </c>
-      <c r="G209" s="18">
+      <c r="G209" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19081.7</v>
       </c>
-      <c r="H209" s="14">
+      <c r="H209" s="27">
         <v>10</v>
       </c>
       <c r="I209" t="s">
@@ -14423,21 +14440,21 @@
       <c r="C210" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D210" s="23">
+      <c r="D210" s="20">
         <v>10</v>
       </c>
       <c r="E210">
         <v>0</v>
       </c>
-      <c r="F210" s="20">
+      <c r="F210" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>22990</v>
       </c>
-      <c r="G210" s="18">
+      <c r="G210" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>18851.8</v>
       </c>
-      <c r="H210" s="14">
+      <c r="H210" s="27">
         <v>10</v>
       </c>
       <c r="I210" t="s">
@@ -14457,21 +14474,21 @@
       <c r="C211" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D211" s="23">
+      <c r="D211" s="20">
         <v>10</v>
       </c>
       <c r="E211">
         <v>3</v>
       </c>
-      <c r="F211" s="20">
+      <c r="F211" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>23990</v>
       </c>
-      <c r="G211" s="18">
+      <c r="G211" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>19911.7</v>
       </c>
-      <c r="H211" s="14">
+      <c r="H211" s="27">
         <v>13</v>
       </c>
       <c r="I211" t="s">
@@ -14491,21 +14508,21 @@
       <c r="C212" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D212" s="23">
+      <c r="D212" s="20">
         <v>10</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
-      <c r="F212" s="20">
+      <c r="F212" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>19990</v>
       </c>
-      <c r="G212" s="18">
+      <c r="G212" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>16591.7</v>
       </c>
-      <c r="H212" s="14">
+      <c r="H212" s="27">
         <v>10</v>
       </c>
       <c r="I212" t="s">
@@ -14525,21 +14542,21 @@
       <c r="C213" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D213" s="23">
+      <c r="D213" s="20">
         <v>10</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
-      <c r="F213" s="20">
+      <c r="F213" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>21990</v>
       </c>
-      <c r="G213" s="18">
+      <c r="G213" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>18251.7</v>
       </c>
-      <c r="H213" s="14">
+      <c r="H213" s="27">
         <v>10</v>
       </c>
       <c r="I213" t="s">
@@ -14559,21 +14576,21 @@
       <c r="C214" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D214" s="23">
+      <c r="D214" s="20">
         <v>10</v>
       </c>
       <c r="E214">
         <v>1</v>
       </c>
-      <c r="F214" s="20">
+      <c r="F214" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>25990</v>
       </c>
-      <c r="G214" s="18">
+      <c r="G214" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>21311.8</v>
       </c>
-      <c r="H214" s="14">
+      <c r="H214" s="27">
         <v>11</v>
       </c>
       <c r="I214" t="s">
@@ -14593,21 +14610,21 @@
       <c r="C215" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D215" s="23">
+      <c r="D215" s="20">
         <v>10</v>
       </c>
       <c r="E215">
         <v>1</v>
       </c>
-      <c r="F215" s="20">
+      <c r="F215" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>34990</v>
       </c>
-      <c r="G215" s="18">
+      <c r="G215" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>27992</v>
       </c>
-      <c r="H215" s="14">
+      <c r="H215" s="27">
         <v>11</v>
       </c>
       <c r="I215" t="s">
@@ -14627,21 +14644,21 @@
       <c r="C216" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D216" s="23">
+      <c r="D216" s="20">
         <v>10</v>
       </c>
       <c r="E216">
         <v>2</v>
       </c>
-      <c r="F216" s="20">
+      <c r="F216" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>36990</v>
       </c>
-      <c r="G216" s="18">
+      <c r="G216" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>29592</v>
       </c>
-      <c r="H216" s="14">
+      <c r="H216" s="27">
         <v>12</v>
       </c>
       <c r="I216" t="s">
@@ -14675,7 +14692,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>38992.200000000004</v>
       </c>
-      <c r="H217" s="16">
+      <c r="H217" s="28">
         <v>10</v>
       </c>
       <c r="I217" s="8" t="s">
@@ -14709,7 +14726,7 @@
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>45232.200000000004</v>
       </c>
-      <c r="H218" s="16">
+      <c r="H218" s="28">
         <v>16</v>
       </c>
       <c r="I218" s="8" t="s">
@@ -14729,21 +14746,21 @@
       <c r="C219" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D219" s="24">
+      <c r="D219" s="21">
         <v>9</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
-      <c r="F219" s="20">
+      <c r="F219" s="17">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>790</v>
       </c>
-      <c r="G219" s="18">
+      <c r="G219" s="15">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>553</v>
       </c>
-      <c r="H219" s="14">
+      <c r="H219" s="27">
         <v>9</v>
       </c>
       <c r="I219" t="s">
@@ -14754,7 +14771,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J219"/>
+  <autoFilter ref="A1:J219" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Добавить товары/Добавляю от 14.05/Остатки Schaub Lorenz 13.05.xlsx
+++ b/Добавить товары/Добавляю от 14.05/Остатки Schaub Lorenz 13.05.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВТОРАЯ РАБОТА\Проект Shaubl\SchaubLorenz\Добавить товары\Добавляю от 14.05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Вторая\Проект Shaubl\SchaubLorenz\Добавить товары\Добавляю от 14.05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D66D524-97A1-4CB9-966F-A52A5EF7E1DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="1995" windowWidth="23760" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="1995" windowWidth="23760" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="105" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$J$219</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1190,7 +1189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
     <numFmt numFmtId="165" formatCode="0.000_ ;[Red]\-0.000\ "/>
@@ -1343,7 +1342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1396,10 +1395,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7137,7 +7137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -7172,7 +7172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7356,28 +7356,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="0.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="0.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="0.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="15" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="27" customWidth="1"/>
     <col min="9" max="9" width="3.140625" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="153" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -9777,68 +9777,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="D72" s="21">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72" s="17">
+      <c r="D72" s="25">
+        <v>0</v>
+      </c>
+      <c r="E72" s="23">
+        <v>0</v>
+      </c>
+      <c r="F72" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>2990</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G72" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>2392</v>
       </c>
-      <c r="H72" s="27">
-        <v>0</v>
-      </c>
-      <c r="J72">
+      <c r="H72" s="30">
+        <v>0</v>
+      </c>
+      <c r="J72" s="23">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="D73" s="21">
-        <v>0</v>
-      </c>
-      <c r="E73">
+      <c r="D73" s="25">
+        <v>0</v>
+      </c>
+      <c r="E73" s="23">
         <v>6</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4990</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>3743</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H73" s="30">
         <v>6</v>
       </c>
-      <c r="I73" t="s">
-        <v>380</v>
-      </c>
-      <c r="J73">
+      <c r="I73" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J73" s="23">
         <v>1</v>
       </c>
     </row>
@@ -9876,37 +9876,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="D75" s="21">
-        <v>0</v>
-      </c>
-      <c r="E75">
+      <c r="D75" s="25">
+        <v>0</v>
+      </c>
+      <c r="E75" s="23">
         <v>6</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>4990</v>
       </c>
-      <c r="G75" s="15">
+      <c r="G75" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>3743</v>
       </c>
-      <c r="H75" s="27">
+      <c r="H75" s="30">
         <v>6</v>
       </c>
-      <c r="I75" t="s">
-        <v>380</v>
-      </c>
-      <c r="J75">
+      <c r="I75" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J75" s="23">
         <v>1</v>
       </c>
     </row>
@@ -10077,37 +10077,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="21">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" s="17">
+      <c r="D81" s="25">
+        <v>1</v>
+      </c>
+      <c r="E81" s="23">
+        <v>0</v>
+      </c>
+      <c r="F81" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>5990</v>
       </c>
-      <c r="G81" s="15">
+      <c r="G81" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4493</v>
       </c>
-      <c r="H81" s="27">
-        <v>1</v>
-      </c>
-      <c r="I81" t="s">
-        <v>380</v>
-      </c>
-      <c r="J81">
+      <c r="H81" s="30">
+        <v>1</v>
+      </c>
+      <c r="I81" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J81" s="23">
         <v>1</v>
       </c>
     </row>
@@ -10247,34 +10247,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="D86" s="21">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" s="17">
+      <c r="D86" s="25">
+        <v>0</v>
+      </c>
+      <c r="E86" s="23">
+        <v>0</v>
+      </c>
+      <c r="F86" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>6990</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G86" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>4893</v>
       </c>
-      <c r="H86" s="27">
-        <v>0</v>
-      </c>
-      <c r="J86">
+      <c r="H86" s="30">
+        <v>0</v>
+      </c>
+      <c r="J86" s="23">
         <v>14</v>
       </c>
     </row>
@@ -12770,37 +12770,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="161" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="D161" s="21">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>1</v>
-      </c>
-      <c r="F161" s="17">
+      <c r="D161" s="25">
+        <v>1</v>
+      </c>
+      <c r="E161" s="23">
+        <v>1</v>
+      </c>
+      <c r="F161" s="26">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>17090</v>
       </c>
-      <c r="G161" s="15">
+      <c r="G161" s="23">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>13159.3</v>
       </c>
-      <c r="H161" s="27">
+      <c r="H161" s="30">
         <v>2</v>
       </c>
-      <c r="I161" t="s">
-        <v>380</v>
-      </c>
-      <c r="J161">
+      <c r="I161" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J161" s="23">
         <v>1</v>
       </c>
     </row>
@@ -13110,37 +13110,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="171" spans="1:11" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="32">
         <v>18000000</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="D171" s="21">
-        <v>0</v>
-      </c>
-      <c r="E171">
-        <v>0</v>
-      </c>
-      <c r="F171" s="17" t="str">
+      <c r="D171" s="25">
+        <v>0</v>
+      </c>
+      <c r="E171" s="23">
+        <v>0</v>
+      </c>
+      <c r="F171" s="26" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$F,6,0)</f>
         <v>76 424</v>
       </c>
-      <c r="G171" s="15" t="str">
+      <c r="G171" s="23" t="str">
         <f>VLOOKUP(A:A,'[1]цены с 21.03'!$A:$E,5,0)</f>
         <v>97 980</v>
       </c>
-      <c r="H171" s="27">
-        <v>0</v>
-      </c>
-      <c r="J171">
+      <c r="H171" s="30">
+        <v>0</v>
+      </c>
+      <c r="J171" s="23">
         <v>14</v>
       </c>
-      <c r="K171" t="s">
+      <c r="K171" s="23" t="s">
         <v>382</v>
       </c>
     </row>
@@ -14771,7 +14771,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J219" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J219"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
